--- a/source_analyses/eu/2012/3_primary_production/waste_source_analysis.xlsx
+++ b/source_analyses/eu/2012/3_primary_production/waste_source_analysis.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="48000" yWindow="0" windowWidth="19200" windowHeight="21800" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Waste" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -273,13 +273,13 @@
     <t>Ratio</t>
   </si>
   <si>
-    <t>[1] Eurostat (2012) Municipal waste (env_wasmun)</t>
-  </si>
-  <si>
     <t>[2] Quintel Intelligence (2014) Primary production analysis. Value derivived from IEA (2012).</t>
   </si>
   <si>
     <t>[1]</t>
+  </si>
+  <si>
+    <t>[1] Eurostat (2012) Municipal waste (env_wasmun); http://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=env_wasmun&amp;lang=en or Eurostat (2012) Waste treatment (env_wastrt); http://appsso.eurostat.ec.europa.eu/nui/show.do?dataset=env_wastrt&amp;lang=en</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -512,6 +512,22 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -527,27 +543,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="69">
@@ -950,7 +953,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -967,51 +972,51 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" s="8" customFormat="1" ht="75">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="10">
@@ -1040,7 +1045,7 @@
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="10">
@@ -1069,7 +1074,7 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="35" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="10">
@@ -1098,7 +1103,7 @@
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="35" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10">
@@ -1127,7 +1132,7 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="35" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="10">
@@ -1156,7 +1161,7 @@
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="35" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="10">
@@ -1185,7 +1190,7 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="10">
@@ -1214,7 +1219,7 @@
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="35" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="10">
@@ -1243,7 +1248,7 @@
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="35" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="10">
@@ -1272,7 +1277,7 @@
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="35" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="10">
@@ -1301,7 +1306,7 @@
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="35" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="10">
@@ -1330,7 +1335,7 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="35" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="10">
@@ -1359,7 +1364,7 @@
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="10">
@@ -1388,7 +1393,7 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="10">
@@ -1417,7 +1422,7 @@
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="10">
@@ -1446,7 +1451,7 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="35" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="10">
@@ -1475,7 +1480,7 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="35" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="10">
@@ -1504,7 +1509,7 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="35" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="10">
@@ -1533,7 +1538,7 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="35" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="10">
@@ -1562,7 +1567,7 @@
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="10">
@@ -1591,7 +1596,7 @@
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="35" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="10">
@@ -1620,7 +1625,7 @@
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="35" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="10">
@@ -1649,7 +1654,7 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="35" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="10">
@@ -1678,7 +1683,7 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="35" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="10">
@@ -1707,7 +1712,7 @@
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="10">
@@ -1736,7 +1741,7 @@
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="35" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="10">
@@ -1765,7 +1770,7 @@
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="35" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="10">
@@ -1794,7 +1799,7 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="10">
@@ -1823,7 +1828,7 @@
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="35" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="10">
@@ -1852,7 +1857,7 @@
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="35" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="10">
@@ -1881,7 +1886,7 @@
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="35" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="10">
@@ -1910,7 +1915,7 @@
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="35" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="10">
@@ -1939,7 +1944,7 @@
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="10">
@@ -1968,7 +1973,7 @@
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="10">
@@ -1997,7 +2002,7 @@
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="10">
@@ -2026,7 +2031,7 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="35" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="10">
@@ -2334,19 +2339,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="12"/>
@@ -2602,18 +2607,18 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="2:13" ht="30" customHeight="1">
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="44">
+      <c r="C66" s="45"/>
+      <c r="D66" s="37">
         <f>355858+571304</f>
         <v>927162</v>
       </c>
-      <c r="E66" s="44" t="s">
+      <c r="E66" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="F66" s="44" t="s">
+      <c r="F66" s="37" t="s">
         <v>80</v>
       </c>
       <c r="G66" s="10"/>
@@ -2625,10 +2630,10 @@
       <c r="M66" s="2"/>
     </row>
     <row r="67" spans="2:13" ht="30" customHeight="1">
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="42"/>
+      <c r="C67" s="46"/>
       <c r="D67" s="31">
         <f>D48</f>
         <v>47846</v>
@@ -2646,18 +2651,18 @@
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="2:13">
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="45"/>
-      <c r="D68" s="46">
+      <c r="C68" s="38"/>
+      <c r="D68" s="39">
         <f>D66/D67</f>
         <v>19.378046231659908</v>
       </c>
-      <c r="E68" s="46" t="s">
+      <c r="E68" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F68" s="46"/>
+      <c r="F68" s="39"/>
       <c r="G68" s="10"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -2682,20 +2687,20 @@
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="2:13">
-      <c r="B71" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="33" t="s">
+      <c r="B71" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="33" t="s">
+      <c r="D71" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="E71" s="32" t="s">
+      <c r="E71" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
       <c r="H71" s="24" t="s">
         <v>71</v>
       </c>
@@ -2703,9 +2708,9 @@
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="2:13" ht="30">
-      <c r="B72" s="36"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
       <c r="E72" s="25" t="s">
         <v>72</v>
       </c>
@@ -2732,11 +2737,11 @@
         <v>27946.639999999999</v>
       </c>
       <c r="E73" s="2">
-        <f>(D57+G57)/D57*C73</f>
+        <f t="shared" ref="E73:E79" si="5">(D57+G57)/D57*C73</f>
         <v>37610.544130730836</v>
       </c>
       <c r="F73" s="2">
-        <f>(D57+G57)/D57*D73</f>
+        <f t="shared" ref="F73:F79" si="6">(D57+G57)/D57*D73</f>
         <v>29551.383513390836</v>
       </c>
       <c r="G73" s="2">
@@ -2744,7 +2749,7 @@
         <v>67161.927644121664</v>
       </c>
       <c r="H73" s="2">
-        <f>(C73+D73)+(G46*D$68)</f>
+        <f t="shared" ref="H73:H79" si="7">(C73+D73)+(G46*D$68)</f>
         <v>68417.445696609953</v>
       </c>
       <c r="I73" s="2"/>
@@ -2761,19 +2766,19 @@
         <v>168104.66999999998</v>
       </c>
       <c r="E74" s="2">
-        <f>(D58+G58)/D58*C74</f>
+        <f t="shared" si="5"/>
         <v>214577.47701786118</v>
       </c>
       <c r="F74" s="2">
-        <f>(D58+G58)/D58*D74</f>
+        <f t="shared" si="6"/>
         <v>331990.57030296174</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" ref="G74:G79" si="5">E74+F74</f>
+        <f t="shared" ref="G74:G79" si="8">E74+F74</f>
         <v>546568.04732082295</v>
       </c>
       <c r="H74" s="2">
-        <f>(C74+D74)+(G47*D$68)</f>
+        <f t="shared" si="7"/>
         <v>443873.05070183502</v>
       </c>
       <c r="I74" s="2"/>
@@ -2790,19 +2795,19 @@
         <v>571304.17999999993</v>
       </c>
       <c r="E75" s="2">
-        <f>(D59+G59)/D59*C75</f>
+        <f t="shared" si="5"/>
         <v>1079130.8019504242</v>
       </c>
       <c r="F75" s="2">
-        <f>(D59+G59)/D59*D75</f>
+        <f t="shared" si="6"/>
         <v>1732468.045072942</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2811598.847023366</v>
       </c>
       <c r="H75" s="2">
-        <f>(C75+D75)+(G48*D$68)</f>
+        <f t="shared" si="7"/>
         <v>2811599.2738439995</v>
       </c>
       <c r="I75" s="2"/>
@@ -2819,19 +2824,19 @@
         <v>31954.87</v>
       </c>
       <c r="E76" s="2">
-        <f>(D60+G60)/D60*C76</f>
+        <f t="shared" si="5"/>
         <v>140482.87549668874</v>
       </c>
       <c r="F76" s="2">
-        <f>(D60+G60)/D60*D76</f>
+        <f t="shared" si="6"/>
         <v>138451.35197880794</v>
       </c>
       <c r="G76" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>278934.22747549671</v>
       </c>
       <c r="H76" s="2">
-        <f>(C76+D76)+(G49*D$68)</f>
+        <f t="shared" si="7"/>
         <v>308173.81964051328</v>
       </c>
       <c r="I76" s="2"/>
@@ -2848,19 +2853,19 @@
         <v>25381.14</v>
       </c>
       <c r="E77" s="2" t="e">
-        <f>(D61+G61)/D61*C77</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F77" s="2" t="e">
-        <f>(D61+G61)/D61*D77</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G77" s="30" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="F77" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G77" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H77" s="2">
-        <f>(C77+D77)+(G50*D$68)</f>
+        <f t="shared" si="7"/>
         <v>214940.47500188102</v>
       </c>
       <c r="I77" s="2"/>
@@ -2877,19 +2882,19 @@
         <v>7353.57</v>
       </c>
       <c r="E78" s="2">
-        <f>(D62+G62)/D62*C78</f>
+        <f t="shared" si="5"/>
         <v>55993.44867469879</v>
       </c>
       <c r="F78" s="2">
-        <f>(D62+G62)/D62*D78</f>
+        <f t="shared" si="6"/>
         <v>55993.44867469879</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>111986.89734939758</v>
       </c>
       <c r="H78" s="2">
-        <f>(C78+D78)+(G51*D$68)</f>
+        <f t="shared" si="7"/>
         <v>280670.82452953228</v>
       </c>
       <c r="I78" s="2"/>
@@ -2906,19 +2911,19 @@
         <v>52814.85</v>
       </c>
       <c r="E79" s="2">
-        <f>(D63+G63)/D63*C79</f>
+        <f t="shared" si="5"/>
         <v>102035.29645274843</v>
       </c>
       <c r="F79" s="2">
-        <f>(D63+G63)/D63*D79</f>
+        <f t="shared" si="6"/>
         <v>102035.29645274843</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>204070.59290549686</v>
       </c>
       <c r="H79" s="2">
-        <f>(C79+D79)+(G52*D$68)</f>
+        <f t="shared" si="7"/>
         <v>305708.02734188858</v>
       </c>
       <c r="I79" s="2"/>
@@ -2940,23 +2945,32 @@
       <c r="H80" s="7"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:10">
       <c r="B82" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
+    <row r="83" spans="2:10" ht="45" customHeight="1">
+      <c r="B83" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
-      <c r="B84" t="s">
-        <v>85</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B83:J83"/>
     <mergeCell ref="E71:G71"/>
     <mergeCell ref="C71:C72"/>
     <mergeCell ref="D71:D72"/>
